--- a/as_seas_ra.xlsx
+++ b/as_seas_ra.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\ajuste_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hernany Castro\OneDrive\Área de Trabalho\CREAS\creas_r\gith_transito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A64655-9A1D-466D-9ED3-755BBBF3348A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75217F0-0D56-4E69-91B1-56185B0DFEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$2:$B$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,114 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>GAMA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>TAGUATINGA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SUDOESTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SAMAMBAIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CRUZEIRO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SANTA MARIA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PLANALTINA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SOBRADINHO II</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>LAGO SUL</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SIA</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>ra</t>
   </si>
   <si>
-    <t>abordagem</t>
-  </si>
-  <si>
     <t>A CLARAS</t>
   </si>
   <si>
@@ -174,20 +68,101 @@
     <t>PARANOA</t>
   </si>
   <si>
-    <t>S SEBASTIAO</t>
-  </si>
-  <si>
     <t>GUARA</t>
   </si>
   <si>
     <t>ITAPOA</t>
+  </si>
+  <si>
+    <t>CRUZEIRO</t>
+  </si>
+  <si>
+    <t>GAMA</t>
+  </si>
+  <si>
+    <t>J BOTANICO</t>
+  </si>
+  <si>
+    <t>LAGO NORTE</t>
+  </si>
+  <si>
+    <t>LAGO SUL</t>
+  </si>
+  <si>
+    <t>P WAY</t>
+  </si>
+  <si>
+    <t>PLANALTINA</t>
+  </si>
+  <si>
+    <t>R FUNDO II</t>
+  </si>
+  <si>
+    <t>S MARIA</t>
+  </si>
+  <si>
+    <t>S SEBAS</t>
+  </si>
+  <si>
+    <t>SAMAMBAIA</t>
+  </si>
+  <si>
+    <t>SCIA</t>
+  </si>
+  <si>
+    <t>SIA</t>
+  </si>
+  <si>
+    <t>SOBRADINHO II</t>
+  </si>
+  <si>
+    <t>SUDOESTE</t>
+  </si>
+  <si>
+    <t>TAGUATINGA</t>
+  </si>
+  <si>
+    <t>V PIRES</t>
+  </si>
+  <si>
+    <t>VARJAO</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>regional</t>
+  </si>
+  <si>
+    <t>sudoeste</t>
+  </si>
+  <si>
+    <t>centro-sul</t>
+  </si>
+  <si>
+    <t>oeste</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>leste</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>abordagem_ra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,20 +171,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -217,6 +184,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -229,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,42 +224,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,237 +597,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="C1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="3:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:6" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>38813</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11726</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>2023</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>2023</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>2023</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>2023</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>29150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2902</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>7662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="F17" s="2">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>2023</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="F20" s="1">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>2023</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
-        <v>7456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="F21" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>2023</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>2023</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>2023</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>2023</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="2">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>2023</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>2023</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>2023</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="2">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1185</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="4">
-        <v>486</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="4">
-        <v>307</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4">
-        <v>477</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="10"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B25" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>